--- a/Edited_FOTM Survey Data.xlsx
+++ b/Edited_FOTM Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahrizkyy/Desktop/QAC 380/group6qac380/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71543DD2-8382-814B-8442-56BD2E6741D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF1D7FA-46B2-4A4C-91B4-EFCDC936E1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28720" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,9 +1547,6 @@
     <t>French Indian, Italian</t>
   </si>
   <si>
-    <t>Genderqueer/non-binary, neither exclusively man nor woman</t>
-  </si>
-  <si>
     <t>00000645</t>
   </si>
   <si>
@@ -2041,11 +2038,17 @@
   <si>
     <t>EDIT_SCHOOL_LEVEL</t>
   </si>
+  <si>
+    <t>Genderqueer or Non-Binary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2550,7 +2553,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
@@ -2578,6 +2581,9 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2936,14 +2942,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD197" sqref="AD197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14" style="14" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
@@ -3084,423 +3091,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>655</v>
+      <c r="A1" s="17" t="s">
+        <v>654</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="CO1" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="CQ1" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="CR1" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="CS1" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="CT1" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="CU1" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="CV1" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="CW1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="CX1" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="CY1" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="CZ1" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="DA1" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="DB1" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="DC1" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="DD1" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="DE1" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="DF1" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="DG1" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="DH1" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="DI1" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="DJ1" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="DK1" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="DL1" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="DM1" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="DN1" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="DO1" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="DP1" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="DQ1" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="DR1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="DS1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="DT1" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="BW1" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="BZ1" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="CB1" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="CC1" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="CG1" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="CI1" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="CK1" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="CL1" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="CM1" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="CO1" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="CQ1" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="CS1" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="CT1" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="CU1" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="CV1" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="CW1" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="CX1" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="CY1" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="CZ1" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="DA1" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="DB1" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="DC1" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="DD1" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="DE1" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="DF1" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="DG1" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="DH1" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="DI1" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="DJ1" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="DK1" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="DL1" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="DM1" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="DN1" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="DO1" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="DP1" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="DQ1" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="DR1" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="DS1" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="DT1" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="DU1" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DV1" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="DW1" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="DX1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DY1" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DZ1" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EA1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="EB1" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="EC1" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="ED1" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="EE1" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="EF1" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="EG1" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="EH1" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="18">
         <v>43900.415439814817</v>
       </c>
       <c r="B2" s="14">
@@ -3870,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="DU2" s="2" t="s">
         <v>0</v>
@@ -3916,7 +3923,7 @@
       </c>
     </row>
     <row r="3" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="18">
         <v>43900.420162037037</v>
       </c>
       <c r="B3" s="14">
@@ -4286,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="DT3" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="DU3" s="2" t="s">
         <v>0</v>
@@ -4332,7 +4339,7 @@
       </c>
     </row>
     <row r="4" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="18">
         <v>43900.417500000003</v>
       </c>
       <c r="B4" s="14">
@@ -4702,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="DU4" s="2" t="s">
         <v>0</v>
@@ -4748,7 +4755,7 @@
       </c>
     </row>
     <row r="5" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="18">
         <v>43900.42260416667</v>
       </c>
       <c r="B5" s="14">
@@ -5118,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="DT5" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="DU5" s="2" t="s">
         <v>0</v>
@@ -5164,7 +5171,7 @@
       </c>
     </row>
     <row r="6" spans="1:138" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="18">
         <v>43900.419675925928</v>
       </c>
       <c r="B6" s="14">
@@ -5186,7 +5193,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>50</v>
@@ -5468,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="CX6" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="CY6" s="2" t="s">
         <v>0</v>
@@ -5534,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="DT6" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="DU6" s="2" t="s">
         <v>0</v>
@@ -5580,7 +5587,7 @@
       </c>
     </row>
     <row r="7" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="18">
         <v>43900.420289351852</v>
       </c>
       <c r="B7" s="14">
@@ -5950,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="DT7" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="DU7" s="2" t="s">
         <v>230</v>
@@ -5996,7 +6003,7 @@
       </c>
     </row>
     <row r="8" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="18">
         <v>43900.437245370369</v>
       </c>
       <c r="B8" s="14">
@@ -6075,7 +6082,7 @@
         <v>47</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>65</v>
@@ -6366,7 +6373,7 @@
         <v>4</v>
       </c>
       <c r="DT8" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="DU8" s="2" t="s">
         <v>0</v>
@@ -6412,7 +6419,7 @@
       </c>
     </row>
     <row r="9" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="18">
         <v>43900.433136574073</v>
       </c>
       <c r="B9" s="14">
@@ -6782,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="DT9" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="DU9" s="2" t="s">
         <v>0</v>
@@ -6828,7 +6835,7 @@
       </c>
     </row>
     <row r="10" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="18">
         <v>43900.442557870374</v>
       </c>
       <c r="B10" s="14">
@@ -7072,7 +7079,7 @@
         <v>56</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="CE10" s="2" t="s">
         <v>10</v>
@@ -7198,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="DT10" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="DU10" s="2" t="s">
         <v>0</v>
@@ -7243,8 +7250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:138" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+    <row r="11" spans="1:138" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>43900.434155092589</v>
       </c>
       <c r="B11" s="14">
@@ -7269,7 +7276,7 @@
         <v>372</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>505</v>
+        <v>669</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>0</v>
@@ -7660,7 +7667,7 @@
       </c>
     </row>
     <row r="12" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="18">
         <v>43900.443032407406</v>
       </c>
       <c r="B12" s="14">
@@ -8076,7 +8083,7 @@
       </c>
     </row>
     <row r="13" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="18">
         <v>43900.448750000003</v>
       </c>
       <c r="B13" s="14">
@@ -8492,7 +8499,7 @@
       </c>
     </row>
     <row r="14" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="18">
         <v>43900.45652777778</v>
       </c>
       <c r="B14" s="14">
@@ -8908,7 +8915,7 @@
       </c>
     </row>
     <row r="15" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="18">
         <v>43900.453541666669</v>
       </c>
       <c r="B15" s="14">
@@ -9324,7 +9331,7 @@
       </c>
     </row>
     <row r="16" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="18">
         <v>43900.459733796299</v>
       </c>
       <c r="B16" s="14">
@@ -9740,7 +9747,7 @@
       </c>
     </row>
     <row r="17" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="18">
         <v>43900.464756944442</v>
       </c>
       <c r="B17" s="14">
@@ -10156,7 +10163,7 @@
       </c>
     </row>
     <row r="18" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="18">
         <v>43900.468217592592</v>
       </c>
       <c r="B18" s="14">
@@ -10572,7 +10579,7 @@
       </c>
     </row>
     <row r="19" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="18">
         <v>43900.464317129627</v>
       </c>
       <c r="B19" s="14">
@@ -10988,7 +10995,7 @@
       </c>
     </row>
     <row r="20" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="18">
         <v>43900.477094907408</v>
       </c>
       <c r="B20" s="14">
@@ -11404,7 +11411,7 @@
       </c>
     </row>
     <row r="21" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="18">
         <v>43900.481539351851</v>
       </c>
       <c r="B21" s="14">
@@ -11820,7 +11827,7 @@
       </c>
     </row>
     <row r="22" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="18">
         <v>43900.472291666665</v>
       </c>
       <c r="B22" s="14">
@@ -12236,7 +12243,7 @@
       </c>
     </row>
     <row r="23" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="18">
         <v>43900.497476851851</v>
       </c>
       <c r="B23" s="14">
@@ -12652,7 +12659,7 @@
       </c>
     </row>
     <row r="24" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="18">
         <v>43900.498518518521</v>
       </c>
       <c r="B24" s="14">
@@ -13068,7 +13075,7 @@
       </c>
     </row>
     <row r="25" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="A25" s="18">
         <v>43900.504074074073</v>
       </c>
       <c r="B25" s="14">
@@ -13484,7 +13491,7 @@
       </c>
     </row>
     <row r="26" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="18">
         <v>43900.49962962963</v>
       </c>
       <c r="B26" s="14">
@@ -13900,7 +13907,7 @@
       </c>
     </row>
     <row r="27" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="18">
         <v>43900.513194444444</v>
       </c>
       <c r="B27" s="14">
@@ -14316,7 +14323,7 @@
       </c>
     </row>
     <row r="28" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="18">
         <v>43900.516087962962</v>
       </c>
       <c r="B28" s="14">
@@ -14732,7 +14739,7 @@
       </c>
     </row>
     <row r="29" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+      <c r="A29" s="18">
         <v>43900.517129629632</v>
       </c>
       <c r="B29" s="14">
@@ -15148,7 +15155,7 @@
       </c>
     </row>
     <row r="30" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+      <c r="A30" s="18">
         <v>43900.519918981481</v>
       </c>
       <c r="B30" s="14">
@@ -15564,7 +15571,7 @@
       </c>
     </row>
     <row r="31" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
+      <c r="A31" s="18">
         <v>43900.525763888887</v>
       </c>
       <c r="B31" s="14">
@@ -15980,7 +15987,7 @@
       </c>
     </row>
     <row r="32" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+      <c r="A32" s="18">
         <v>43900.538217592592</v>
       </c>
       <c r="B32" s="14">
@@ -16396,7 +16403,7 @@
       </c>
     </row>
     <row r="33" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="A33" s="18">
         <v>43900.532384259262</v>
       </c>
       <c r="B33" s="14">
@@ -16812,7 +16819,7 @@
       </c>
     </row>
     <row r="34" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="18">
         <v>43900.549375000002</v>
       </c>
       <c r="B34" s="14">
@@ -17228,7 +17235,7 @@
       </c>
     </row>
     <row r="35" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="18">
         <v>43900.560798611114</v>
       </c>
       <c r="B35" s="14">
@@ -17644,7 +17651,7 @@
       </c>
     </row>
     <row r="36" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="18">
         <v>43900.561493055553</v>
       </c>
       <c r="B36" s="14">
@@ -18060,7 +18067,7 @@
       </c>
     </row>
     <row r="37" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+      <c r="A37" s="18">
         <v>43900.554884259262</v>
       </c>
       <c r="B37" s="14">
@@ -18476,7 +18483,7 @@
       </c>
     </row>
     <row r="38" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
+      <c r="A38" s="18">
         <v>43900.563726851855</v>
       </c>
       <c r="B38" s="14">
@@ -18892,7 +18899,7 @@
       </c>
     </row>
     <row r="39" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="A39" s="18">
         <v>43900.566030092596</v>
       </c>
       <c r="B39" s="14">
@@ -19308,7 +19315,7 @@
       </c>
     </row>
     <row r="40" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+      <c r="A40" s="18">
         <v>43900.581111111111</v>
       </c>
       <c r="B40" s="14">
@@ -19724,7 +19731,7 @@
       </c>
     </row>
     <row r="41" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="18">
         <v>43900.572534722225</v>
       </c>
       <c r="B41" s="14">
@@ -20140,7 +20147,7 @@
       </c>
     </row>
     <row r="42" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="18">
         <v>43900.587592592594</v>
       </c>
       <c r="B42" s="14">
@@ -20556,7 +20563,7 @@
       </c>
     </row>
     <row r="43" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+      <c r="A43" s="18">
         <v>43901.420902777776</v>
       </c>
       <c r="B43" s="14">
@@ -20972,7 +20979,7 @@
       </c>
     </row>
     <row r="44" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="18">
         <v>43901.428923611114</v>
       </c>
       <c r="B44" s="14">
@@ -21388,7 +21395,7 @@
       </c>
     </row>
     <row r="45" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+      <c r="A45" s="18">
         <v>43901.429849537039</v>
       </c>
       <c r="B45" s="14">
@@ -21804,7 +21811,7 @@
       </c>
     </row>
     <row r="46" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
+      <c r="A46" s="18">
         <v>43901.442743055559</v>
       </c>
       <c r="B46" s="14">
@@ -22220,7 +22227,7 @@
       </c>
     </row>
     <row r="47" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
+      <c r="A47" s="18">
         <v>43901.445844907408</v>
       </c>
       <c r="B47" s="14">
@@ -22636,7 +22643,7 @@
       </c>
     </row>
     <row r="48" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+      <c r="A48" s="18">
         <v>43901.432488425926</v>
       </c>
       <c r="B48" s="14">
@@ -23052,7 +23059,7 @@
       </c>
     </row>
     <row r="49" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="18">
         <v>43901.44935185185</v>
       </c>
       <c r="B49" s="14">
@@ -23468,7 +23475,7 @@
       </c>
     </row>
     <row r="50" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="18">
         <v>43901.451157407406</v>
       </c>
       <c r="B50" s="14">
@@ -23884,7 +23891,7 @@
       </c>
     </row>
     <row r="51" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+      <c r="A51" s="18">
         <v>43901.449386574073</v>
       </c>
       <c r="B51" s="14">
@@ -24300,7 +24307,7 @@
       </c>
     </row>
     <row r="52" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+      <c r="A52" s="18">
         <v>43901.461261574077</v>
       </c>
       <c r="B52" s="14">
@@ -24716,7 +24723,7 @@
       </c>
     </row>
     <row r="53" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="A53" s="18">
         <v>43901.460138888891</v>
       </c>
       <c r="B53" s="14">
@@ -25132,7 +25139,7 @@
       </c>
     </row>
     <row r="54" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+      <c r="A54" s="18">
         <v>43901.46466435185</v>
       </c>
       <c r="B54" s="14">
@@ -25548,7 +25555,7 @@
       </c>
     </row>
     <row r="55" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+      <c r="A55" s="18">
         <v>43901.470127314817</v>
       </c>
       <c r="B55" s="14">
@@ -25964,7 +25971,7 @@
       </c>
     </row>
     <row r="56" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
+      <c r="A56" s="18">
         <v>43901.477881944447</v>
       </c>
       <c r="B56" s="14">
@@ -26380,7 +26387,7 @@
       </c>
     </row>
     <row r="57" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="18">
         <v>43901.471342592595</v>
       </c>
       <c r="B57" s="14">
@@ -26796,7 +26803,7 @@
       </c>
     </row>
     <row r="58" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="18">
         <v>43901.476574074077</v>
       </c>
       <c r="B58" s="14">
@@ -27212,7 +27219,7 @@
       </c>
     </row>
     <row r="59" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="18">
         <v>43901.453379629631</v>
       </c>
       <c r="B59" s="14">
@@ -27628,7 +27635,7 @@
       </c>
     </row>
     <row r="60" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+      <c r="A60" s="18">
         <v>43901.480243055557</v>
       </c>
       <c r="B60" s="14">
@@ -28044,7 +28051,7 @@
       </c>
     </row>
     <row r="61" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
+      <c r="A61" s="18">
         <v>43901.479699074072</v>
       </c>
       <c r="B61" s="14">
@@ -28460,7 +28467,7 @@
       </c>
     </row>
     <row r="62" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+      <c r="A62" s="18">
         <v>43901.487824074073</v>
       </c>
       <c r="B62" s="14">
@@ -28876,7 +28883,7 @@
       </c>
     </row>
     <row r="63" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="14">
+      <c r="A63" s="18">
         <v>43901.493043981478</v>
       </c>
       <c r="B63" s="14">
@@ -29292,7 +29299,7 @@
       </c>
     </row>
     <row r="64" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="14">
+      <c r="A64" s="18">
         <v>43901.495219907411</v>
       </c>
       <c r="B64" s="14">
@@ -29708,7 +29715,7 @@
       </c>
     </row>
     <row r="65" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="14">
+      <c r="A65" s="18">
         <v>43901.493692129632</v>
       </c>
       <c r="B65" s="14">
@@ -30124,7 +30131,7 @@
       </c>
     </row>
     <row r="66" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="14">
+      <c r="A66" s="18">
         <v>43901.502245370371</v>
       </c>
       <c r="B66" s="14">
@@ -30540,7 +30547,7 @@
       </c>
     </row>
     <row r="67" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
+      <c r="A67" s="18">
         <v>43901.496423611112</v>
       </c>
       <c r="B67" s="14">
@@ -30956,7 +30963,7 @@
       </c>
     </row>
     <row r="68" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
+      <c r="A68" s="18">
         <v>43901.513356481482</v>
       </c>
       <c r="B68" s="14">
@@ -31372,7 +31379,7 @@
       </c>
     </row>
     <row r="69" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="14">
+      <c r="A69" s="18">
         <v>43901.511018518519</v>
       </c>
       <c r="B69" s="14">
@@ -31788,7 +31795,7 @@
       </c>
     </row>
     <row r="70" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="14">
+      <c r="A70" s="18">
         <v>43901.520624999997</v>
       </c>
       <c r="B70" s="14">
@@ -32204,7 +32211,7 @@
       </c>
     </row>
     <row r="71" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="14">
+      <c r="A71" s="18">
         <v>43901.523275462961</v>
       </c>
       <c r="B71" s="14">
@@ -32620,7 +32627,7 @@
       </c>
     </row>
     <row r="72" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="14">
+      <c r="A72" s="18">
         <v>43901.538136574076</v>
       </c>
       <c r="B72" s="14">
@@ -33036,7 +33043,7 @@
       </c>
     </row>
     <row r="73" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="14">
+      <c r="A73" s="18">
         <v>43901.539050925923</v>
       </c>
       <c r="B73" s="14">
@@ -33452,7 +33459,7 @@
       </c>
     </row>
     <row r="74" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="14">
+      <c r="A74" s="18">
         <v>43901.512604166666</v>
       </c>
       <c r="B74" s="14">
@@ -33868,7 +33875,7 @@
       </c>
     </row>
     <row r="75" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="14">
+      <c r="A75" s="18">
         <v>43901.552488425928</v>
       </c>
       <c r="B75" s="14">
@@ -34284,7 +34291,7 @@
       </c>
     </row>
     <row r="76" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+      <c r="A76" s="18">
         <v>43901.546956018516</v>
       </c>
       <c r="B76" s="14">
@@ -34700,7 +34707,7 @@
       </c>
     </row>
     <row r="77" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
+      <c r="A77" s="18">
         <v>43901.564479166664</v>
       </c>
       <c r="B77" s="14">
@@ -35116,7 +35123,7 @@
       </c>
     </row>
     <row r="78" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="14">
+      <c r="A78" s="18">
         <v>43901.570601851854</v>
       </c>
       <c r="B78" s="14">
@@ -35532,7 +35539,7 @@
       </c>
     </row>
     <row r="79" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="14">
+      <c r="A79" s="18">
         <v>43901.573692129627</v>
       </c>
       <c r="B79" s="14">
@@ -35948,7 +35955,7 @@
       </c>
     </row>
     <row r="80" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="14">
+      <c r="A80" s="18">
         <v>43901.578831018516</v>
       </c>
       <c r="B80" s="14">
@@ -36364,7 +36371,7 @@
       </c>
     </row>
     <row r="81" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="14">
+      <c r="A81" s="18">
         <v>43901.576840277776</v>
       </c>
       <c r="B81" s="14">
@@ -36780,7 +36787,7 @@
       </c>
     </row>
     <row r="82" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="14">
+      <c r="A82" s="18">
         <v>43901.574652777781</v>
       </c>
       <c r="B82" s="14">
@@ -37196,7 +37203,7 @@
       </c>
     </row>
     <row r="83" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="14">
+      <c r="A83" s="18">
         <v>43902.418668981481</v>
       </c>
       <c r="B83" s="14">
@@ -37612,7 +37619,7 @@
       </c>
     </row>
     <row r="84" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="14">
+      <c r="A84" s="18">
         <v>43902.425046296295</v>
       </c>
       <c r="B84" s="14">
@@ -38028,7 +38035,7 @@
       </c>
     </row>
     <row r="85" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="14">
+      <c r="A85" s="18">
         <v>43902.432199074072</v>
       </c>
       <c r="B85" s="14">
@@ -38116,7 +38123,7 @@
         <v>340</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE85" s="2" t="s">
         <v>10</v>
@@ -38444,7 +38451,7 @@
       </c>
     </row>
     <row r="86" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="14">
+      <c r="A86" s="18">
         <v>43902.438969907409</v>
       </c>
       <c r="B86" s="14">
@@ -38860,7 +38867,7 @@
       </c>
     </row>
     <row r="87" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="14">
+      <c r="A87" s="18">
         <v>43902.429409722223</v>
       </c>
       <c r="B87" s="14">
@@ -39276,7 +39283,7 @@
       </c>
     </row>
     <row r="88" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="14">
+      <c r="A88" s="18">
         <v>43902.442777777775</v>
       </c>
       <c r="B88" s="14">
@@ -39692,7 +39699,7 @@
       </c>
     </row>
     <row r="89" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="14">
+      <c r="A89" s="18">
         <v>43902.443888888891</v>
       </c>
       <c r="B89" s="14">
@@ -40108,7 +40115,7 @@
       </c>
     </row>
     <row r="90" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="14">
+      <c r="A90" s="18">
         <v>43902.457118055558</v>
       </c>
       <c r="B90" s="14">
@@ -40524,7 +40531,7 @@
       </c>
     </row>
     <row r="91" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="14">
+      <c r="A91" s="18">
         <v>43902.458356481482</v>
       </c>
       <c r="B91" s="14">
@@ -40940,7 +40947,7 @@
       </c>
     </row>
     <row r="92" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="14">
+      <c r="A92" s="18">
         <v>43902.456041666665</v>
       </c>
       <c r="B92" s="14">
@@ -41356,7 +41363,7 @@
       </c>
     </row>
     <row r="93" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="14">
+      <c r="A93" s="18">
         <v>43902.462835648148</v>
       </c>
       <c r="B93" s="14">
@@ -41772,7 +41779,7 @@
       </c>
     </row>
     <row r="94" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
+      <c r="A94" s="18">
         <v>43902.462106481478</v>
       </c>
       <c r="B94" s="14">
@@ -42188,7 +42195,7 @@
       </c>
     </row>
     <row r="95" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="14">
+      <c r="A95" s="18">
         <v>43902.471701388888</v>
       </c>
       <c r="B95" s="14">
@@ -42604,7 +42611,7 @@
       </c>
     </row>
     <row r="96" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="14">
+      <c r="A96" s="18">
         <v>43902.472268518519</v>
       </c>
       <c r="B96" s="14">
@@ -43020,7 +43027,7 @@
       </c>
     </row>
     <row r="97" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="14">
+      <c r="A97" s="18">
         <v>43902.475254629629</v>
       </c>
       <c r="B97" s="14">
@@ -43436,7 +43443,7 @@
       </c>
     </row>
     <row r="98" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="14">
+      <c r="A98" s="18">
         <v>43902.461585648147</v>
       </c>
       <c r="B98" s="14">
@@ -43852,7 +43859,7 @@
       </c>
     </row>
     <row r="99" spans="1:138" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
+      <c r="A99" s="18">
         <v>43902.477361111109</v>
       </c>
       <c r="B99" s="14">
@@ -44268,7 +44275,7 @@
       </c>
     </row>
     <row r="100" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
+      <c r="A100" s="18">
         <v>43902.477997685186</v>
       </c>
       <c r="B100" s="14">
@@ -44684,7 +44691,7 @@
       </c>
     </row>
     <row r="101" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="14">
+      <c r="A101" s="18">
         <v>43902.47828703704</v>
       </c>
       <c r="B101" s="14">
@@ -45100,7 +45107,7 @@
       </c>
     </row>
     <row r="102" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="14">
+      <c r="A102" s="18">
         <v>43902.493414351855</v>
       </c>
       <c r="B102" s="14">
@@ -45516,7 +45523,7 @@
       </c>
     </row>
     <row r="103" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="14">
+      <c r="A103" s="18">
         <v>43902.48978009259</v>
       </c>
       <c r="B103" s="14">
@@ -45932,7 +45939,7 @@
       </c>
     </row>
     <row r="104" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="14">
+      <c r="A104" s="18">
         <v>43902.485127314816</v>
       </c>
       <c r="B104" s="14">
@@ -46348,7 +46355,7 @@
       </c>
     </row>
     <row r="105" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="14">
+      <c r="A105" s="18">
         <v>43902.489837962959</v>
       </c>
       <c r="B105" s="14">
@@ -46764,7 +46771,7 @@
       </c>
     </row>
     <row r="106" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="14">
+      <c r="A106" s="18">
         <v>43902.50204861111</v>
       </c>
       <c r="B106" s="14">
@@ -47180,7 +47187,7 @@
       </c>
     </row>
     <row r="107" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="14">
+      <c r="A107" s="18">
         <v>43902.50267361111</v>
       </c>
       <c r="B107" s="14">
@@ -47596,7 +47603,7 @@
       </c>
     </row>
     <row r="108" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
+      <c r="A108" s="18">
         <v>43902.503877314812</v>
       </c>
       <c r="B108" s="14">
@@ -48012,7 +48019,7 @@
       </c>
     </row>
     <row r="109" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
+      <c r="A109" s="18">
         <v>43902.522361111114</v>
       </c>
       <c r="B109" s="14">
@@ -48428,7 +48435,7 @@
       </c>
     </row>
     <row r="110" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="14">
+      <c r="A110" s="18">
         <v>43902.521817129629</v>
       </c>
       <c r="B110" s="14">
@@ -48844,7 +48851,7 @@
       </c>
     </row>
     <row r="111" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="14">
+      <c r="A111" s="18">
         <v>43902.520671296297</v>
       </c>
       <c r="B111" s="14">
@@ -49260,7 +49267,7 @@
       </c>
     </row>
     <row r="112" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="14">
+      <c r="A112" s="18">
         <v>43902.519004629627</v>
       </c>
       <c r="B112" s="14">
@@ -49676,7 +49683,7 @@
       </c>
     </row>
     <row r="113" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="14">
+      <c r="A113" s="18">
         <v>43902.53765046296</v>
       </c>
       <c r="B113" s="14">
@@ -50092,7 +50099,7 @@
       </c>
     </row>
     <row r="114" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="14">
+      <c r="A114" s="18">
         <v>43902.541354166664</v>
       </c>
       <c r="B114" s="14">
@@ -50508,7 +50515,7 @@
       </c>
     </row>
     <row r="115" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="14">
+      <c r="A115" s="18">
         <v>43902.546724537038</v>
       </c>
       <c r="B115" s="14">
@@ -50924,7 +50931,7 @@
       </c>
     </row>
     <row r="116" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="14">
+      <c r="A116" s="18">
         <v>43902.549039351848</v>
       </c>
       <c r="B116" s="14">
@@ -51340,7 +51347,7 @@
       </c>
     </row>
     <row r="117" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="14">
+      <c r="A117" s="18">
         <v>43902.55195601852</v>
       </c>
       <c r="B117" s="14">
@@ -51756,7 +51763,7 @@
       </c>
     </row>
     <row r="118" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="14">
+      <c r="A118" s="18">
         <v>43902.548692129632</v>
       </c>
       <c r="B118" s="14">
@@ -52172,7 +52179,7 @@
       </c>
     </row>
     <row r="119" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="14">
+      <c r="A119" s="18">
         <v>43902.561956018515</v>
       </c>
       <c r="B119" s="14">
@@ -52588,7 +52595,7 @@
       </c>
     </row>
     <row r="120" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="14">
+      <c r="A120" s="18">
         <v>43902.5625462963</v>
       </c>
       <c r="B120" s="14">
@@ -53004,7 +53011,7 @@
       </c>
     </row>
     <row r="121" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="14">
+      <c r="A121" s="18">
         <v>43902.570416666669</v>
       </c>
       <c r="B121" s="14">
@@ -53420,7 +53427,7 @@
       </c>
     </row>
     <row r="122" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="14">
+      <c r="A122" s="18">
         <v>43902.56453703704</v>
       </c>
       <c r="B122" s="14">
@@ -53836,7 +53843,7 @@
       </c>
     </row>
     <row r="123" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="14">
+      <c r="A123" s="18">
         <v>43902.583009259259</v>
       </c>
       <c r="B123" s="14">
@@ -54252,7 +54259,7 @@
       </c>
     </row>
     <row r="124" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="14">
+      <c r="A124" s="18">
         <v>43902.578009259261</v>
       </c>
       <c r="B124" s="14">
@@ -54668,7 +54675,7 @@
       </c>
     </row>
     <row r="125" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="14">
+      <c r="A125" s="18">
         <v>44022.489421296297</v>
       </c>
       <c r="B125" s="14">
@@ -55084,7 +55091,7 @@
       </c>
     </row>
     <row r="126" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="14">
+      <c r="A126" s="18">
         <v>44022.557013888887</v>
       </c>
       <c r="B126" s="14">
@@ -55500,7 +55507,7 @@
       </c>
     </row>
     <row r="127" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="14">
+      <c r="A127" s="18">
         <v>44025.566377314812</v>
       </c>
       <c r="B127" s="14">
@@ -55916,7 +55923,7 @@
       </c>
     </row>
     <row r="128" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="14">
+      <c r="A128" s="18">
         <v>44027.636828703704</v>
       </c>
       <c r="B128" s="14">
@@ -56332,7 +56339,7 @@
       </c>
     </row>
     <row r="129" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="14">
+      <c r="A129" s="18">
         <v>44029.547384259262</v>
       </c>
       <c r="B129" s="14">
@@ -56748,7 +56755,7 @@
       </c>
     </row>
     <row r="130" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="14">
+      <c r="A130" s="18">
         <v>44032.360092592593</v>
       </c>
       <c r="B130" s="14">
@@ -57164,7 +57171,7 @@
       </c>
     </row>
     <row r="131" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="14">
+      <c r="A131" s="18">
         <v>44032.51189814815</v>
       </c>
       <c r="B131" s="14">
@@ -57580,7 +57587,7 @@
       </c>
     </row>
     <row r="132" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="14">
+      <c r="A132" s="18">
         <v>44029.557025462964</v>
       </c>
       <c r="B132" s="14">
@@ -57996,7 +58003,7 @@
       </c>
     </row>
     <row r="133" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="14">
+      <c r="A133" s="18">
         <v>44032.559884259259</v>
       </c>
       <c r="B133" s="14">
@@ -58412,7 +58419,7 @@
       </c>
     </row>
     <row r="134" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="14">
+      <c r="A134" s="18">
         <v>44033.545486111114</v>
       </c>
       <c r="B134" s="14">
@@ -58826,7 +58833,7 @@
       </c>
     </row>
     <row r="135" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="14">
+      <c r="A135" s="18">
         <v>44033.60769675926</v>
       </c>
       <c r="B135" s="14">
@@ -59242,7 +59249,7 @@
       </c>
     </row>
     <row r="136" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="14">
+      <c r="A136" s="18">
         <v>44034.478680555556</v>
       </c>
       <c r="B136" s="14">
@@ -59658,7 +59665,7 @@
       </c>
     </row>
     <row r="137" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="14">
+      <c r="A137" s="18">
         <v>44039.548414351855</v>
       </c>
       <c r="B137" s="14">
@@ -60074,7 +60081,7 @@
       </c>
     </row>
     <row r="138" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="14">
+      <c r="A138" s="18">
         <v>44039.563692129632</v>
       </c>
       <c r="B138" s="14">
@@ -60490,7 +60497,7 @@
       </c>
     </row>
     <row r="139" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="14">
+      <c r="A139" s="18">
         <v>44039.676759259259</v>
       </c>
       <c r="B139" s="14">
@@ -60906,7 +60913,7 @@
       </c>
     </row>
     <row r="140" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="14">
+      <c r="A140" s="18">
         <v>44041.347199074073</v>
       </c>
       <c r="B140" s="14">
@@ -61322,7 +61329,7 @@
       </c>
     </row>
     <row r="141" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="14">
+      <c r="A141" s="18">
         <v>44041.516446759262</v>
       </c>
       <c r="B141" s="14">
@@ -61738,7 +61745,7 @@
       </c>
     </row>
     <row r="142" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="14">
+      <c r="A142" s="18">
         <v>44042.63212962963</v>
       </c>
       <c r="B142" s="14">
@@ -62154,7 +62161,7 @@
       </c>
     </row>
     <row r="143" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="14">
+      <c r="A143" s="18">
         <v>44043.4846412037</v>
       </c>
       <c r="B143" s="14">
@@ -62570,7 +62577,7 @@
       </c>
     </row>
     <row r="144" spans="1:138" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="14">
+      <c r="A144" s="18">
         <v>44043.566111111111</v>
       </c>
       <c r="B144" s="14">
@@ -62986,7 +62993,7 @@
       </c>
     </row>
     <row r="145" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="14">
+      <c r="A145" s="18">
         <v>44047.563275462962</v>
       </c>
       <c r="B145" s="14">
@@ -63402,7 +63409,7 @@
       </c>
     </row>
     <row r="146" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="14">
+      <c r="A146" s="18">
         <v>44043.581932870373</v>
       </c>
       <c r="B146" s="14">
@@ -63816,7 +63823,7 @@
       </c>
     </row>
     <row r="147" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="14">
+      <c r="A147" s="18">
         <v>44049.555798611109</v>
       </c>
       <c r="B147" s="14">
@@ -64232,7 +64239,7 @@
       </c>
     </row>
     <row r="148" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="14">
+      <c r="A148" s="18">
         <v>44049.567488425928</v>
       </c>
       <c r="B148" s="14">
@@ -64648,7 +64655,7 @@
       </c>
     </row>
     <row r="149" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="14">
+      <c r="A149" s="18">
         <v>44050.545972222222</v>
       </c>
       <c r="B149" s="14">
@@ -65064,7 +65071,7 @@
       </c>
     </row>
     <row r="150" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="14">
+      <c r="A150" s="18">
         <v>44062.461226851854</v>
       </c>
       <c r="B150" s="14">
@@ -65459,7 +65466,7 @@
       </c>
     </row>
     <row r="151" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="14">
+      <c r="A151" s="18">
         <v>44062.543865740743</v>
       </c>
       <c r="B151" s="14">
@@ -65851,7 +65858,7 @@
       </c>
     </row>
     <row r="152" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152" s="14">
+      <c r="A152" s="18">
         <v>44062.554444444446</v>
       </c>
       <c r="B152" s="14">
@@ -66243,7 +66250,7 @@
       </c>
     </row>
     <row r="153" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="14">
+      <c r="A153" s="18">
         <v>44064.592928240738</v>
       </c>
       <c r="B153" s="14">
@@ -66635,7 +66642,7 @@
       </c>
     </row>
     <row r="154" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="14">
+      <c r="A154" s="18">
         <v>44068.526932870373</v>
       </c>
       <c r="B154" s="14">
@@ -67027,7 +67034,7 @@
       </c>
     </row>
     <row r="155" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="14">
+      <c r="A155" s="18">
         <v>44069.521782407406</v>
       </c>
       <c r="B155" s="14">
@@ -67419,7 +67426,7 @@
       </c>
     </row>
     <row r="156" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="14">
+      <c r="A156" s="18">
         <v>44069.526608796295</v>
       </c>
       <c r="B156" s="14">
@@ -67811,7 +67818,7 @@
       </c>
     </row>
     <row r="157" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="14">
+      <c r="A157" s="18">
         <v>44069.54</v>
       </c>
       <c r="B157" s="14">
@@ -68203,7 +68210,7 @@
       </c>
     </row>
     <row r="158" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="14">
+      <c r="A158" s="18">
         <v>44071.502002314817</v>
       </c>
       <c r="B158" s="14">
@@ -68595,7 +68602,7 @@
       </c>
     </row>
     <row r="159" spans="1:143" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="14">
+      <c r="A159" s="18">
         <v>44074.351898148147</v>
       </c>
       <c r="B159" s="14">
@@ -68987,7 +68994,7 @@
       </c>
     </row>
     <row r="160" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="14">
+      <c r="A160" s="18">
         <v>44501.414293981485</v>
       </c>
       <c r="B160" s="14">
@@ -69418,7 +69425,7 @@
       </c>
     </row>
     <row r="161" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="14">
+      <c r="A161" s="18">
         <v>44501.397465277776</v>
       </c>
       <c r="B161" s="14">
@@ -69849,7 +69856,7 @@
       </c>
     </row>
     <row r="162" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="14">
+      <c r="A162" s="18">
         <v>44501.381562499999</v>
       </c>
       <c r="B162" s="14">
@@ -70280,7 +70287,7 @@
       </c>
     </row>
     <row r="163" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="14">
+      <c r="A163" s="18">
         <v>44501.40121527778</v>
       </c>
       <c r="B163" s="14">
@@ -70711,7 +70718,7 @@
       </c>
     </row>
     <row r="164" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="14">
+      <c r="A164" s="18">
         <v>44501.380173611113</v>
       </c>
       <c r="B164" s="14">
@@ -71142,7 +71149,7 @@
       </c>
     </row>
     <row r="165" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="14">
+      <c r="A165" s="18">
         <v>44501.363576388889</v>
       </c>
       <c r="B165" s="14">
@@ -71573,7 +71580,7 @@
       </c>
     </row>
     <row r="166" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="14">
+      <c r="A166" s="18">
         <v>44501.37332175926</v>
       </c>
       <c r="B166" s="14">
@@ -72004,7 +72011,7 @@
       </c>
     </row>
     <row r="167" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="14">
+      <c r="A167" s="18">
         <v>44501.360601851855</v>
       </c>
       <c r="B167" s="14">
@@ -72435,7 +72442,7 @@
       </c>
     </row>
     <row r="168" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="14">
+      <c r="A168" s="18">
         <v>44501.366284722222</v>
       </c>
       <c r="B168" s="14">
@@ -72866,7 +72873,7 @@
       </c>
     </row>
     <row r="169" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="14">
+      <c r="A169" s="18">
         <v>44501.371238425927</v>
       </c>
       <c r="B169" s="14">
@@ -73297,7 +73304,7 @@
       </c>
     </row>
     <row r="170" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="14">
+      <c r="A170" s="18">
         <v>44501.363854166666</v>
       </c>
       <c r="B170" s="14">
@@ -73728,7 +73735,7 @@
       </c>
     </row>
     <row r="171" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="14">
+      <c r="A171" s="18">
         <v>44501.359236111108</v>
       </c>
       <c r="B171" s="14">
@@ -74159,7 +74166,7 @@
       </c>
     </row>
     <row r="172" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="14">
+      <c r="A172" s="18">
         <v>44501.354305555556</v>
       </c>
       <c r="B172" s="14">
@@ -74590,7 +74597,7 @@
       </c>
     </row>
     <row r="173" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="14">
+      <c r="A173" s="18">
         <v>44501.352199074077</v>
       </c>
       <c r="B173" s="14">
@@ -75021,7 +75028,7 @@
       </c>
     </row>
     <row r="174" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="14">
+      <c r="A174" s="18">
         <v>44501.358738425923</v>
       </c>
       <c r="B174" s="14">
@@ -75452,7 +75459,7 @@
       </c>
     </row>
     <row r="175" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="14">
+      <c r="A175" s="18">
         <v>44501.347129629627</v>
       </c>
       <c r="B175" s="14">
@@ -75883,7 +75890,7 @@
       </c>
     </row>
     <row r="176" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="14">
+      <c r="A176" s="18">
         <v>44501.342326388891</v>
       </c>
       <c r="B176" s="14">
@@ -76314,7 +76321,7 @@
       </c>
     </row>
     <row r="177" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="14">
+      <c r="A177" s="18">
         <v>44501.326932870368</v>
       </c>
       <c r="B177" s="14">
@@ -76745,7 +76752,7 @@
       </c>
     </row>
     <row r="178" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="14">
+      <c r="A178" s="18">
         <v>44501.340277777781</v>
       </c>
       <c r="B178" s="14">
@@ -77176,7 +77183,7 @@
       </c>
     </row>
     <row r="179" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="14">
+      <c r="A179" s="18">
         <v>44501.339166666665</v>
       </c>
       <c r="B179" s="14">
@@ -77607,7 +77614,7 @@
       </c>
     </row>
     <row r="180" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="14">
+      <c r="A180" s="18">
         <v>44501.328483796293</v>
       </c>
       <c r="B180" s="14">
@@ -78038,7 +78045,7 @@
       </c>
     </row>
     <row r="181" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="14">
+      <c r="A181" s="18">
         <v>44501.328611111108</v>
       </c>
       <c r="B181" s="14">
@@ -78469,7 +78476,7 @@
       </c>
     </row>
     <row r="182" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="14">
+      <c r="A182" s="18">
         <v>44501.323645833334</v>
       </c>
       <c r="B182" s="14">
@@ -78900,7 +78907,7 @@
       </c>
     </row>
     <row r="183" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="14">
+      <c r="A183" s="18">
         <v>44501.322789351849</v>
       </c>
       <c r="B183" s="14">
@@ -79331,7 +79338,7 @@
       </c>
     </row>
     <row r="184" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="14">
+      <c r="A184" s="18">
         <v>44501.320370370369</v>
       </c>
       <c r="B184" s="14">
@@ -79762,7 +79769,7 @@
       </c>
     </row>
     <row r="185" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="14">
+      <c r="A185" s="18">
         <v>44501.319652777776</v>
       </c>
       <c r="B185" s="14">
@@ -80193,7 +80200,7 @@
       </c>
     </row>
     <row r="186" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="14">
+      <c r="A186" s="18">
         <v>44510.312048611115</v>
       </c>
       <c r="B186" s="14">
@@ -80622,7 +80629,7 @@
       </c>
     </row>
     <row r="187" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="14">
+      <c r="A187" s="18">
         <v>44510.32440972222</v>
       </c>
       <c r="B187" s="14">
@@ -81053,7 +81060,7 @@
       </c>
     </row>
     <row r="188" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="14">
+      <c r="A188" s="18">
         <v>44510.344317129631</v>
       </c>
       <c r="B188" s="14">
@@ -81481,7 +81488,7 @@
       </c>
     </row>
     <row r="189" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="14">
+      <c r="A189" s="18">
         <v>44531.271643518521</v>
       </c>
       <c r="B189" s="14">
@@ -81912,7 +81919,7 @@
       </c>
     </row>
     <row r="190" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="14">
+      <c r="A190" s="18">
         <v>44531.323368055557</v>
       </c>
       <c r="B190" s="14">
@@ -82343,7 +82350,7 @@
       </c>
     </row>
     <row r="191" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="14">
+      <c r="A191" s="18">
         <v>44531.340949074074</v>
       </c>
       <c r="B191" s="14">
@@ -82774,7 +82781,7 @@
       </c>
     </row>
     <row r="192" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="14">
+      <c r="A192" s="18">
         <v>44531.354548611111</v>
       </c>
       <c r="B192" s="14">
@@ -83205,7 +83212,7 @@
       </c>
     </row>
     <row r="193" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="14">
+      <c r="A193" s="18">
         <v>44531.362951388888</v>
       </c>
       <c r="B193" s="14">
@@ -83636,7 +83643,7 @@
       </c>
     </row>
     <row r="194" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="14">
+      <c r="A194" s="18">
         <v>44531.37232638889</v>
       </c>
       <c r="B194" s="14">
@@ -84067,7 +84074,7 @@
       </c>
     </row>
     <row r="195" spans="1:143" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="14">
+      <c r="A195" s="18">
         <v>44538.369849537034</v>
       </c>
       <c r="B195" s="14">
@@ -84498,7 +84505,7 @@
       </c>
     </row>
     <row r="196" spans="1:143" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="15">
+      <c r="A196" s="19">
         <v>44587.352939814817</v>
       </c>
       <c r="B196" s="15">
@@ -84718,7 +84725,7 @@
         <v>56</v>
       </c>
       <c r="CD196" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="CE196" s="9" t="s">
         <v>10</v>
@@ -84847,17 +84854,17 @@
         <v>830</v>
       </c>
       <c r="EE196" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="EF196" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="EF196" s="11" t="s">
+      <c r="EG196" s="11" t="s">
         <v>658</v>
-      </c>
-      <c r="EG196" s="11" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="197" spans="1:143" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="15">
+      <c r="A197" s="19">
         <v>44587.364490740743</v>
       </c>
       <c r="B197" s="15">
@@ -84939,7 +84946,7 @@
         <v>75</v>
       </c>
       <c r="AC197" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AD197" s="2" t="s">
         <v>19</v>
@@ -85098,7 +85105,7 @@
         <v>63</v>
       </c>
       <c r="CD197" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CE197" s="9" t="s">
         <v>4</v>
@@ -85227,17 +85234,17 @@
         <v>794</v>
       </c>
       <c r="EE197" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="EF197" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="EF197" s="9" t="s">
+      <c r="EG197" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="EG197" s="9" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="198" spans="1:143" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="15">
+      <c r="A198" s="19">
         <v>44587.374861111108</v>
       </c>
       <c r="B198" s="15">
@@ -85460,7 +85467,7 @@
         <v>98</v>
       </c>
       <c r="CD198" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CE198" s="9" t="s">
         <v>4</v>
@@ -85589,17 +85596,17 @@
         <v>1007</v>
       </c>
       <c r="EE198" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="EF198" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="EF198" s="9" t="s">
+      <c r="EG198" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="EG198" s="9" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="199" spans="1:143" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="15">
+      <c r="A199" s="19">
         <v>44601.335289351853</v>
       </c>
       <c r="B199" s="15">
@@ -85951,17 +85958,17 @@
         <v>899</v>
       </c>
       <c r="EE199" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF199" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="EF199" s="9" t="s">
+      <c r="EG199" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="EG199" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="200" spans="1:143" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="15">
+      <c r="A200" s="19">
         <v>44601.33011574074</v>
       </c>
       <c r="B200" s="15">
@@ -86022,7 +86029,7 @@
         <v>47</v>
       </c>
       <c r="AA200" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AB200" s="9" t="s">
         <v>85</v>
@@ -86187,7 +86194,7 @@
         <v>111</v>
       </c>
       <c r="CD200" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="CE200" s="9" t="s">
         <v>10</v>
@@ -86316,17 +86323,17 @@
         <v>951</v>
       </c>
       <c r="EE200" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF200" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="EF200" s="9" t="s">
+      <c r="EG200" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="EG200" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="201" spans="1:143" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="15">
+      <c r="A201" s="19">
         <v>44601.361041666663</v>
       </c>
       <c r="B201" s="15">
@@ -86619,7 +86626,7 @@
         <v>0</v>
       </c>
       <c r="CW201" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="CX201" s="9" t="s">
         <v>0</v>
@@ -86691,17 +86698,17 @@
         <v>954</v>
       </c>
       <c r="EE201" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF201" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="EF201" s="9" t="s">
+      <c r="EG201" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="EG201" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="202" spans="1:143" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="15">
+      <c r="A202" s="19">
         <v>44601.363981481481</v>
       </c>
       <c r="B202" s="15">
@@ -87056,13 +87063,13 @@
         <v>810</v>
       </c>
       <c r="EE202" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="EF202" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="EF202" s="9" t="s">
+      <c r="EG202" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="EG202" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="203" spans="1:143" x14ac:dyDescent="0.2">
